--- a/alignments/reports/pseudReports_blastBasedAlignments_2021_Jan13_workingCopy.xlsx
+++ b/alignments/reports/pseudReports_blastBasedAlignments_2021_Jan13_workingCopy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jayoung/Desktop/mac_workStuff/domesticated_capsid/alignments/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E48E3816-E939-224C-B826-9CCA79BFC365}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2429B17B-59E1-1B4D-9958-432061121BBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="460" windowWidth="26920" windowHeight="15540" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15920" yWindow="460" windowWidth="16980" windowHeight="15540" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ARC_ARC" sheetId="1" r:id="rId1"/>
@@ -4396,9 +4396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+    <sheetView zoomScale="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4478,8 +4478,8 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
-        <v>2</v>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4538,8 +4538,8 @@
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="1">
-        <v>2</v>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5122,10 +5122,18 @@
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -5296,16 +5304,61 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -5330,6 +5383,21 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -5420,10 +5488,13 @@
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -5747,7 +5818,7 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>2</v>
       </c>
       <c r="D19">
@@ -5793,10 +5864,13 @@
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="B2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -6164,12 +6238,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">

--- a/alignments/reports/pseudReports_blastBasedAlignments_2021_Jan13_workingCopy.xlsx
+++ b/alignments/reports/pseudReports_blastBasedAlignments_2021_Jan13_workingCopy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jayoung/Desktop/mac_workStuff/domesticated_capsid/alignments/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2429B17B-59E1-1B4D-9958-432061121BBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF189C8-7A83-B442-92B5-4CEB826DB18B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15920" yWindow="460" windowWidth="16980" windowHeight="15540" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9860" yWindow="460" windowWidth="16980" windowHeight="15540" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ARC_ARC" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -141,6 +141,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,9 +173,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,12 +836,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -915,23 +926,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>
@@ -980,168 +991,168 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
         <v>0</v>
       </c>
     </row>
@@ -6238,7 +6249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+    <sheetView zoomScale="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
@@ -6541,10 +6552,13 @@
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -6691,63 +6705,63 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>
@@ -6884,10 +6898,13 @@
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -6929,63 +6946,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>
@@ -7129,23 +7146,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
         <v>0</v>
       </c>
     </row>
@@ -7182,10 +7199,13 @@
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">

--- a/alignments/reports/pseudReports_blastBasedAlignments_2021_Jan13_workingCopy.xlsx
+++ b/alignments/reports/pseudReports_blastBasedAlignments_2021_Jan13_workingCopy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jayoung/Desktop/mac_workStuff/domesticated_capsid/alignments/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF189C8-7A83-B442-92B5-4CEB826DB18B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47977D84-BD05-0F4E-A4FD-2E8FB1C75EEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9860" yWindow="460" windowWidth="16980" windowHeight="15540" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,7 +838,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -927,22 +927,22 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1012,22 +1012,22 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
     </row>
@@ -1052,107 +1052,112 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>0</v>
       </c>
     </row>
